--- a/Data/EC/NIT-8600170051.xlsx
+++ b/Data/EC/NIT-8600170051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F90C16-DEA7-408C-A207-83375A83FEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13A4EDA-6CB3-4927-AE22-FD83768E8EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11178370-6C99-46B2-A7CC-C5DBCACBFE3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D33F6AB3-EE84-409E-B435-D209F88E723F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="84">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,187 +71,190 @@
     <t>NANCY GARCIA HERRERA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -665,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1866CF3-F726-6DAB-3047-729BC301C630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B454E7B-6F92-F68A-9F42-FD949FCB5358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +1019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F227370-D258-4A44-A379-D25BC4368ADB}">
-  <dimension ref="B2:J82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D99C7E-3D62-4D2F-B0F4-485D45C30E97}">
+  <dimension ref="B2:J83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1041,7 +1044,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1086,7 +1089,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1118,12 +1121,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4682360</v>
+        <v>4759120</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1137,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2561,42 +2564,54 @@
       <c r="J75" s="20"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="22" t="s">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="24">
-        <v>76760</v>
-      </c>
-      <c r="G76" s="24">
-        <v>1919000</v>
-      </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="H81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="F76" s="18">
+        <v>76760</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1919000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="24">
+        <v>76760</v>
+      </c>
+      <c r="G77" s="24">
+        <v>1919000</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C82" s="32"/>
       <c r="H82" s="1" t="s">
@@ -2605,12 +2620,23 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H81:J81"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
